--- a/1 기능 정의/project04 - 요구사항 정의서 - 현태.xlsx
+++ b/1 기능 정의/project04 - 요구사항 정의서 - 현태.xlsx
@@ -1,46 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
-  </bookViews>
   <sheets>
-    <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
-    <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="요구사항정의서" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="조원 역할 분배" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$31</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'요구사항정의서'!$A$7:$P$29</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgROmjIYZq9lDQyy9gBk6tLMKV7xg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+  <si>
+    <t>현태</t>
+  </si>
   <si>
     <t>로그인 및 계정관련</t>
+  </si>
+  <si>
+    <t>서희</t>
   </si>
   <si>
     <t>게시판 관련</t>
   </si>
   <si>
-    <t>요구사항정의서</t>
+    <t>용승</t>
   </si>
   <si>
     <t>여행 정보 관련</t>
   </si>
   <si>
+    <t>기범</t>
+  </si>
+  <si>
     <t>메인 컨텐츠 관련</t>
   </si>
   <si>
+    <t>형준</t>
+  </si>
+  <si>
     <t>메인 화면</t>
+  </si>
+  <si>
+    <t>요구사항정의서</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="돋움"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>앱</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="돋움"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="돋움"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="돋움"/>
+        <b/>
+        <color theme="0"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>완료</t>
+    </r>
   </si>
   <si>
     <t>구분</t>
@@ -79,7 +155,16 @@
     <t>화면코드(Mobile)</t>
   </si>
   <si>
-    <t>사용자</t>
+    <t>사용자 공통</t>
+  </si>
+  <si>
+    <t>메인화면</t>
+  </si>
+  <si>
+    <t>진입화면</t>
+  </si>
+  <si>
+    <t>카테고리 별 새로 등록 된 장비들 표시 (등록 날짜 순)</t>
   </si>
   <si>
     <t>HJ - P - 001
@@ -92,10 +177,31 @@
 HT – M - 003</t>
   </si>
   <si>
+    <t>계정관련</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 주소, 프로필사진, 전화번호</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>GOOGLE, KAKAO, FACEBOOK 소셜 로그인, 또는 웹자체 ID, 비밀번호 입력을 통한 로그인</t>
+  </si>
+  <si>
     <t>HT – P - 004</t>
   </si>
   <si>
     <t>HT – M - 004</t>
+  </si>
+  <si>
+    <t>신고하기</t>
+  </si>
+  <si>
+    <t>부적절한 장비 렌탈이 이루어지는 경우 제재하기 위해 (반려동물과 같은 렌탈 대상으로 부적절한 내용이 있을 경우를 대비), 광고성이 다분한 내용 등 - 신고글 번호, 신고분류(허위 장비, 성인용품, 반려동물렌탈 등등), 제목, 내용, 스크린샷 첨부</t>
   </si>
   <si>
     <t>HT – P - 005</t>
@@ -104,10 +210,43 @@
     <t>HT – M - 005</t>
   </si>
   <si>
+    <t>마이페이지</t>
+  </si>
+  <si>
+    <t>1. 회원정보 수정
+2. 빌려줄 장비 등록
+3. 내가 빌려 준 장비 목록(장비 이름, 사진, 빌려 주기 기간, 장비를 빌려간 사람의 ID, 장비를 빌려간 사람이 장비를 대여해간 기간, 빌려주기 해당건 완료 됐음 결정버튼(장비를 빌려주는 사람의 기능 2)
+4. 내가 빌린 장비 목록 (장비 이름, 사진, 빌린 기간, 장비를 빌려주는 사람의 ID, 빌린 장비를 받은 당시의 사진 등록 버튼 및 확인하기 - 렌탈 기간 끝나고 나면 등록 버튼은 비활성화, 빌린 장비를 반납할 때 사진 등록 버튼 및 확인 -  등록한 이후 수정 불가)
+5. 장비 빌려주세요 게시판에 등록한 게시글 확인 - 제목, 등록날짜를 테이블 형식으로 표시, 제목을 클릭하면 해당 게시글로 이동
+6. 웹머니 충전 내역 - 충전일자, 충전 금액</t>
+  </si>
+  <si>
+    <t>웹 머니 충전</t>
+  </si>
+  <si>
+    <t>웹머니를 충전하여 장비를 렌탈할 때 지불하는 금액으로 사용</t>
+  </si>
+  <si>
+    <t>장비를 빌리는 사람</t>
+  </si>
+  <si>
+    <t>장비 빌리기</t>
+  </si>
+  <si>
+    <t>빌려 쓸 장비 검색</t>
+  </si>
+  <si>
+    <t>-카테고리별로 분류
+-키워드로 검색하는 기능</t>
+  </si>
+  <si>
     <t>HT – P - 006</t>
   </si>
   <si>
     <t>HT – M - 006</t>
+  </si>
+  <si>
+    <t>빌리는 날짜, 반납하는 날짜를 선택하여 장비 렌탈 신청</t>
   </si>
   <si>
     <t>KB – P - 007</t>
@@ -116,10 +255,24 @@
     <t>KB – M - 007</t>
   </si>
   <si>
+    <t>빌린 장비를 받았음을 확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">렌탈 받은 장비를 받자마자 장비의 상태를 사진 찍어서 올려야함 - 분쟁 방지를 위해 </t>
+  </si>
+  <si>
     <t>KB – P - 008</t>
   </si>
   <si>
     <t>KB – M - 008</t>
+  </si>
+  <si>
+    <t>빌린 장비를 반납 했음을 확인</t>
+  </si>
+  <si>
+    <t>-장비를 다 빌려쓰고 난 후 반납하기 직전 장비의 상태의 사진 올림
+-후기는 필수 (“렌탈 기간 종류 이 후 3일 이내”라는 식의 조건 부여 해야함)
+-장비를 빌려준 사람의 평점 등록</t>
   </si>
   <si>
     <t>HT – P - 009</t>
@@ -128,10 +281,27 @@
     <t>HT – M - 009</t>
   </si>
   <si>
+    <t>필요한 장비 빌리기</t>
+  </si>
+  <si>
+    <t>빌려 쓰고 싶은 장비를 가진 사람 찾기</t>
+  </si>
+  <si>
+    <t>-빌려쓰고 싶은 물건, 빌려 쓰는 날짜, 자세한 내용을 입력하여 게시글 등록
+-게시글 하단에 빌려줄 사람이 장비 내용 등록 (여러 사람이 등록할 수 있음)
+-게시글을 올린 사람이 원하는 장비를 빌림</t>
+  </si>
+  <si>
     <t>HT – P - 010</t>
   </si>
   <si>
     <t>HT – M - 010</t>
+  </si>
+  <si>
+    <t>포인트 획득</t>
+  </si>
+  <si>
+    <t>후기를 작성하고 나면 포인트를 일정부분 획득 - 획득한 포인트는 이 후 장비를 빌릴 때 사용</t>
   </si>
   <si>
     <t>HT – P - 011</t>
@@ -140,16 +310,48 @@
     <t>HT – M - 011</t>
   </si>
   <si>
+    <t>장비를 빌려주는 사람</t>
+  </si>
+  <si>
+    <t>장비 빌려 주기</t>
+  </si>
+  <si>
+    <t>빌려줄 장비 등록</t>
+  </si>
+  <si>
+    <t>-물건 이름, 빌려줄 수 있는 기간,
+-사진-현재 장비의 상태를 확인할 수 있을 정도로 자세하게,
+-빌려주는 가격(웹머니)
+-장비를 빌려주는 방법(택배, 직접 만나서 등등) , 장비를 돌려 받는 방법(택배, 직접 만나서 등등)
+-장비 훼손시 보상받는 방법 직접 입력</t>
+  </si>
+  <si>
     <t>HJ - P - 001</t>
   </si>
   <si>
     <t>HJ - M - 001</t>
   </si>
   <si>
+    <t>장비 반납 완료 후 해당 건 종료</t>
+  </si>
+  <si>
+    <t>장비를 빌린 사람의 평점 등록 및 완료 버튼을 통해 해당건 종료</t>
+  </si>
+  <si>
     <t>KB – P – 013</t>
   </si>
   <si>
     <t>KB – M – 013</t>
+  </si>
+  <si>
+    <t>-장비를 빌려 준 사람은 빌려간 사람이 장비를 받았음을 확인 했다고 하는 시점(장비를 빌리는 사람의 기능 3번 시점)에서 일정포인트 획득
+-획득한 포인트는 이 후 본인이 장비를 빌릴 때 사용할 수 있음)</t>
+  </si>
+  <si>
+    <t>빌려간 사람 신고</t>
+  </si>
+  <si>
+    <t>장비를 빌려간 후 훼손 등의 문제가 발생했을 때, 본인이 빌려줄 때 제시했던 훼손 시 보상 받는 방법에 따르지 않는 사람을 신고 - 신고 누적에 따라 본 서비스 이용 제재</t>
   </si>
   <si>
     <t>YS – P – 014
@@ -160,34 +362,49 @@
 YS – M – 015</t>
   </si>
   <si>
-    <t>YS – P – 016</t>
+    <t>관리자</t>
   </si>
   <si>
-    <t>YS – M – 016</t>
+    <t>회원 관리</t>
   </si>
   <si>
-    <t>YS – P – 017
-YS – P – 018</t>
-  </si>
-  <si>
-    <t>YS – M – 017
-YS – M – 018</t>
-  </si>
-  <si>
-    <t>SH – P – 012</t>
-  </si>
-  <si>
-    <t>관리자</t>
+    <t>-회원 ID, 프로필사진, 장비를 빌려준 횟수, 장비를 빌린 횟수, 신고한 횟수, 신고 당한 횟수를 테이블 태그 형식으로 표시
+-회원등 등급 조정 - 장비를 빌려준 등급, 장비를 빌려쓴 등급 따로 관리
+-회원제제 기능 - ex) 3일 이용 정지, 5일 이용 정지, 영구 제명
+-ID 클릭하면 빌려준 장비 목록, 빌린 장비 목록이 자세히 표시(summary, detail 태그의 형식이면 될듯)
+-회원 ID, 장비를 빌려준 횟수, 장비를 빌린 횟수, 신고한 횟수, 신고 당한 횟수 등을 기준으로 회원을 검색하는 기능</t>
   </si>
   <si>
     <t>HT – P – 021</t>
   </si>
   <si>
+    <t>빌려주는 장비 목록 관리</t>
+  </si>
+  <si>
+    <t>-빌려주는 회원 ID, 장비 대표이미지, 장비명, 대여기간, 장비를 빌려간 횟수를 테이블 태그 형식으로 표시
+-빌려주는 회원 ID, 장비 대표 이미지, 장비명, 대여기간, 장비를 빌려간 횟수를 기준으로 장비 목록을 검색하는 기능</t>
+  </si>
+  <si>
     <t>SH – P – 022</t>
+  </si>
+  <si>
+    <t>빌린 장비 목록 관리</t>
+  </si>
+  <si>
+    <t>-빌려간 회원 ID, 장비 대표 이미지, 장비명, 장비를 빌려간 기간, 반납여부를 테이블 태그 형식으로 표시
+-빌려간 회원 ID, 장비명, 장비를 빌려간 기간, 반납여부를 기준으로 빌린 장비 목록을 검색하는 기능</t>
   </si>
   <si>
     <t>KB – P – 026
 KB – P – 027</t>
+  </si>
+  <si>
+    <t>메인 화면 관리</t>
+  </si>
+  <si>
+    <t>-슬라이드 배너 관리 - 슬라이드 번호, 슬라이드 제목, 슬라이드 이미지
+-팝업 관리 - 팝업 번호, 팝업 제목, 팝업 이미지
+-카테고리 관리 - 카테고리 번호, 카테고리 이름, 노출 순서, 카테고리 이미지</t>
   </si>
   <si>
     <t>HJ – P – 028
@@ -195,215 +412,70 @@
 HJ – P – 030</t>
   </si>
   <si>
-    <t>현태</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>게시판 관리</t>
   </si>
   <si>
-    <t>용승</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>서희</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>기범</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앱</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>형준</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>-FAQ 및 이용가이드 관리 - 제목, 내용을 입력하여 FAQ 및 이용가이드 등록, 글 수정, 삭제 기능
+-렌탈 장비 요청 게시판 관리 - 글 번호, 요청한 사람 ID, 제목 을 테이블 형식으로 표시, 제목을 클릭하면 해당 게시글을 summary, detail 태그 형식으로 표시</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="20.0"/>
       <color rgb="FF000000"/>
       <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="0"/>
+      <name val="Dotum"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="10.0"/>
+      <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="10.0"/>
+      <name val="Dotum"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <name val="Dotum"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,7 +483,13 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -425,20 +503,56 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
+    <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -453,7 +567,46 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -466,7 +619,65 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -479,7 +690,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -492,7 +702,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -501,217 +710,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -724,9 +725,19 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -737,340 +748,357 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="89">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="33" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="32" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1260,38 +1288,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="2" max="2" width="27.86"/>
+    <col customWidth="1" min="3" max="3" width="38.43"/>
+    <col customWidth="1" min="4" max="4" width="111.29"/>
+    <col customWidth="1" min="5" max="5" width="16.57"/>
+    <col customWidth="1" min="6" max="6" width="12.29"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="19.0"/>
+    <col customWidth="1" hidden="1" min="8" max="9" width="24.14"/>
+    <col customWidth="1" hidden="1" min="10" max="10" width="18.14"/>
+    <col customWidth="1" min="11" max="11" width="19.0"/>
+    <col customWidth="1" min="12" max="12" width="26.86"/>
+    <col customWidth="1" min="13" max="13" width="44.0"/>
+    <col customWidth="1" hidden="1" min="14" max="14" width="13.86"/>
+    <col customWidth="1" hidden="1" min="15" max="16" width="20.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1326,24 +1352,24 @@
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1363,22 +1389,22 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1398,7 +1424,7 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="19.5" hidden="1" customHeight="1">
+    <row r="4" ht="19.5" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1433,13 +1459,13 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" ht="50.25" hidden="1" customHeight="1">
+    <row r="5" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
-        <v>43860</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>57</v>
+      <c r="B5" s="9">
+        <v>43860.0</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1472,7 +1498,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="19.5" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1507,46 +1533,46 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="60" t="s">
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="F7" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1566,33 +1592,33 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="25">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="25">
-        <v>43858</v>
-      </c>
-      <c r="I8" s="25">
-        <v>43859</v>
-      </c>
-      <c r="J8" s="25">
-        <v>43860</v>
-      </c>
-      <c r="K8" s="25">
-        <v>43861</v>
-      </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="17">
+        <v>43854.0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>43858.0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>43859.0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>43860.0</v>
+      </c>
+      <c r="K8" s="17">
+        <v>43861.0</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1611,30 +1637,36 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" ht="33" customHeight="1">
-      <c r="A9" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+    <row r="9">
+      <c r="A9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>20</v>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1654,28 +1686,34 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="33" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+    <row r="10">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>20</v>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1695,28 +1733,32 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="33" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="8">
-        <v>2</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1736,28 +1778,32 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="33" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>24</v>
+    <row r="12">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1777,23 +1823,27 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="33" customHeight="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+    <row r="13">
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1812,29 +1862,27 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" ht="33" customHeight="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="14">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1853,28 +1901,36 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" ht="33" customHeight="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>28</v>
+    <row r="15">
+      <c r="A15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1894,28 +1950,32 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" ht="33" customHeight="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>30</v>
+    <row r="16">
+      <c r="A16" s="32"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1935,28 +1995,32 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="33" customHeight="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>32</v>
+    <row r="17">
+      <c r="A17" s="32"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1976,28 +2040,32 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="33" customHeight="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>34</v>
+    <row r="18">
+      <c r="A18" s="32"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2017,28 +2085,34 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="33" customHeight="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>36</v>
+    <row r="19">
+      <c r="A19" s="32"/>
+      <c r="B19" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2058,28 +2132,34 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="33" customHeight="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>2</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>38</v>
+    <row r="20">
+      <c r="A20" s="43"/>
+      <c r="B20" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2099,28 +2179,36 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="33" customHeight="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>40</v>
+    <row r="21">
+      <c r="A21" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2140,25 +2228,33 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="33" customHeight="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>3</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+    <row r="22">
+      <c r="A22" s="32"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2177,29 +2273,31 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="33" customHeight="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>42</v>
-      </c>
+    <row r="23">
+      <c r="A23" s="32"/>
+      <c r="B23" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2218,28 +2316,34 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="33" customHeight="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>44</v>
+    <row r="24">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="41">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2259,29 +2363,33 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="33" customHeight="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>46</v>
-      </c>
+    <row r="25">
+      <c r="A25" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="30"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2300,29 +2408,31 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="33" customHeight="1" thickBot="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="8">
-        <v>2</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="26">
+      <c r="A26" s="78"/>
+      <c r="B26" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="41"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2341,29 +2451,31 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="33" customHeight="1" thickTop="1">
-      <c r="A27" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="8">
-        <v>3</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P27" s="5"/>
+    <row r="27">
+      <c r="A27" s="78"/>
+      <c r="B27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="82"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2382,27 +2494,31 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" ht="33" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="8">
-        <v>3</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P28" s="8"/>
+    <row r="28">
+      <c r="A28" s="78"/>
+      <c r="B28" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O28" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="82"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2421,27 +2537,29 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" ht="33" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="8">
-        <v>3</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="3"/>
+    <row r="29">
+      <c r="A29" s="78"/>
+      <c r="B29" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2460,27 +2578,17 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="33" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="8">
-        <v>3</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="3"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2499,25 +2607,17 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" ht="33" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="8">
-        <v>3</v>
-      </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2536,23 +2636,20 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" ht="33" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2571,23 +2668,23 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" ht="33" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2606,23 +2703,21 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" ht="33" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2641,23 +2736,25 @@
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35" spans="1:33" ht="33" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2676,20 +2773,22 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
     </row>
-    <row r="36" spans="1:33" ht="33" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="21"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2711,20 +2810,22 @@
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
     </row>
-    <row r="37" spans="1:33" ht="33" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="21"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2746,14 +2847,22 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="M38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2775,14 +2884,22 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="M39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2804,7 +2921,7 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
@@ -2814,6 +2931,9 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2836,7 +2956,7 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -2871,7 +2991,7 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2881,7 +3001,9 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="L42" s="14"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -2904,7 +3026,7 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2914,11 +3036,9 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -2941,7 +3061,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
     </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2951,11 +3071,9 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -2978,7 +3096,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2988,11 +3106,9 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3015,7 +3131,7 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -3025,11 +3141,9 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -3052,7 +3166,7 @@
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -3062,11 +3176,9 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -3089,7 +3201,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -3124,7 +3236,7 @@
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
     </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -3159,7 +3271,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
     </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -3194,7 +3306,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -3229,7 +3341,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
     </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -3264,7 +3376,7 @@
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
     </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -3299,7 +3411,7 @@
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
     </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -3334,7 +3446,7 @@
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
     </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -3369,7 +3481,7 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
     </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -3404,7 +3516,7 @@
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
     </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -3439,7 +3551,7 @@
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
     </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -3474,7 +3586,7 @@
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
     </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -3509,7 +3621,7 @@
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -3544,7 +3656,7 @@
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
     </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3579,7 +3691,7 @@
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
     </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -3614,7 +3726,7 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
     </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -3649,7 +3761,7 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
     </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -3684,7 +3796,7 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -3719,7 +3831,7 @@
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
     </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -3754,7 +3866,7 @@
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
     </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -3789,7 +3901,7 @@
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
     </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -3824,7 +3936,7 @@
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
     </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3859,7 +3971,7 @@
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
     </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3894,7 +4006,7 @@
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
     </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3929,7 +4041,7 @@
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
     </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -3964,7 +4076,7 @@
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
     </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3999,7 +4111,7 @@
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
     </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -4034,7 +4146,7 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
     </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -4069,7 +4181,7 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
     </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -4104,7 +4216,7 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
     </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -4139,7 +4251,7 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
     </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -4174,7 +4286,7 @@
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
     </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -4209,7 +4321,7 @@
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
     </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -4244,7 +4356,7 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
     </row>
-    <row r="81" spans="1:33" ht="15.75" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -4279,7 +4391,7 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
     </row>
-    <row r="82" spans="1:33" ht="15.75" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -4314,7 +4426,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
     </row>
-    <row r="83" spans="1:33" ht="15.75" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -4349,7 +4461,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
     </row>
-    <row r="84" spans="1:33" ht="15.75" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -4384,7 +4496,7 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
     </row>
-    <row r="85" spans="1:33" ht="15.75" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -4419,7 +4531,7 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
     </row>
-    <row r="86" spans="1:33" ht="15.75" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -4454,7 +4566,7 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
     </row>
-    <row r="87" spans="1:33" ht="15.75" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -4489,7 +4601,7 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
     </row>
-    <row r="88" spans="1:33" ht="15.75" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4524,7 +4636,7 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
     </row>
-    <row r="89" spans="1:33" ht="15.75" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4559,7 +4671,7 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
     </row>
-    <row r="90" spans="1:33" ht="15.75" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4594,7 +4706,7 @@
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
     </row>
-    <row r="91" spans="1:33" ht="15.75" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4629,7 +4741,7 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
     </row>
-    <row r="92" spans="1:33" ht="15.75" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4664,7 +4776,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="1:33" ht="15.75" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4699,7 +4811,7 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="1:33" ht="15.75" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4734,7 +4846,7 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="1:33" ht="15.75" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4769,7 +4881,7 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="1:33" ht="15.75" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4804,7 +4916,7 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4839,7 +4951,7 @@
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4874,7 +4986,7 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
     </row>
-    <row r="99" spans="1:33" ht="15.75" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -4909,7 +5021,7 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="1"/>
     </row>
-    <row r="100" spans="1:33" ht="15.75" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -4944,7 +5056,7 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="1:33" ht="15.75" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4979,7 +5091,7 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="1:33" ht="15.75" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -5014,7 +5126,7 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="1:33" ht="15.75" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -5049,7 +5161,7 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -5084,7 +5196,7 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="1:33" ht="15.75" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -5119,7 +5231,7 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="1:33" ht="15.75" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -5154,7 +5266,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="1:33" ht="15.75" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -5189,7 +5301,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="1:33" ht="15.75" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -5224,7 +5336,7 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="1:33" ht="15.75" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -5259,7 +5371,7 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="1:33" ht="15.75" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -5294,7 +5406,7 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="1:33" ht="15.75" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -5329,7 +5441,7 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="1:33" ht="15.75" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -5364,7 +5476,7 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="1:33" ht="15.75" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -5399,7 +5511,7 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="1:33" ht="15.75" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -5434,7 +5546,7 @@
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="1:33" ht="15.75" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -5469,7 +5581,7 @@
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="1:33" ht="15.75" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -5504,7 +5616,7 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="1:33" ht="15.75" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -5539,7 +5651,7 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="1:33" ht="15.75" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -5574,7 +5686,7 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="1:33" ht="15.75" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5609,7 +5721,7 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="1:33" ht="15.75" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -5644,7 +5756,7 @@
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="1:33" ht="15.75" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -5679,7 +5791,7 @@
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="1:33" ht="15.75" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -5714,7 +5826,7 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="1:33" ht="15.75" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -5749,7 +5861,7 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="124" spans="1:33" ht="15.75" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -5784,7 +5896,7 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
     </row>
-    <row r="125" spans="1:33" ht="15.75" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -5819,7 +5931,7 @@
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
     </row>
-    <row r="126" spans="1:33" ht="15.75" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -5854,7 +5966,7 @@
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
     </row>
-    <row r="127" spans="1:33" ht="15.75" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -5889,7 +6001,7 @@
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
     </row>
-    <row r="128" spans="1:33" ht="15.75" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -5924,7 +6036,7 @@
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
     </row>
-    <row r="129" spans="1:33" ht="15.75" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -5959,7 +6071,7 @@
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
     </row>
-    <row r="130" spans="1:33" ht="15.75" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -5994,7 +6106,7 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
     </row>
-    <row r="131" spans="1:33" ht="15.75" customHeight="1">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -6029,7 +6141,7 @@
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
     </row>
-    <row r="132" spans="1:33" ht="15.75" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -6064,7 +6176,7 @@
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
     </row>
-    <row r="133" spans="1:33" ht="15.75" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -6099,7 +6211,7 @@
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
     </row>
-    <row r="134" spans="1:33" ht="15.75" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -6134,7 +6246,7 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
     </row>
-    <row r="135" spans="1:33" ht="15.75" customHeight="1">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -6169,7 +6281,7 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
     </row>
-    <row r="136" spans="1:33" ht="15.75" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -6204,7 +6316,7 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
     </row>
-    <row r="137" spans="1:33" ht="15.75" customHeight="1">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -6239,7 +6351,7 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
     </row>
-    <row r="138" spans="1:33" ht="15.75" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -6274,7 +6386,7 @@
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
     </row>
-    <row r="139" spans="1:33" ht="15.75" customHeight="1">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -6309,7 +6421,7 @@
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
     </row>
-    <row r="140" spans="1:33" ht="15.75" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -6344,7 +6456,7 @@
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
     </row>
-    <row r="141" spans="1:33" ht="15.75" customHeight="1">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -6379,7 +6491,7 @@
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
     </row>
-    <row r="142" spans="1:33" ht="15.75" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -6414,7 +6526,7 @@
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
     </row>
-    <row r="143" spans="1:33" ht="15.75" customHeight="1">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -6449,7 +6561,7 @@
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
     </row>
-    <row r="144" spans="1:33" ht="15.75" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -6484,7 +6596,7 @@
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
     </row>
-    <row r="145" spans="1:33" ht="15.75" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -6519,7 +6631,7 @@
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
     </row>
-    <row r="146" spans="1:33" ht="15.75" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -6554,7 +6666,7 @@
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
     </row>
-    <row r="147" spans="1:33" ht="15.75" customHeight="1">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -6589,7 +6701,7 @@
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
     </row>
-    <row r="148" spans="1:33" ht="15.75" customHeight="1">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -6624,7 +6736,7 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
     </row>
-    <row r="149" spans="1:33" ht="15.75" customHeight="1">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -6659,7 +6771,7 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
     </row>
-    <row r="150" spans="1:33" ht="15.75" customHeight="1">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -6694,7 +6806,7 @@
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
     </row>
-    <row r="151" spans="1:33" ht="15.75" customHeight="1">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -6729,7 +6841,7 @@
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
     </row>
-    <row r="152" spans="1:33" ht="15.75" customHeight="1">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -6764,7 +6876,7 @@
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
     </row>
-    <row r="153" spans="1:33" ht="15.75" customHeight="1">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -6799,7 +6911,7 @@
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
     </row>
-    <row r="154" spans="1:33" ht="15.75" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -6834,7 +6946,7 @@
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
     </row>
-    <row r="155" spans="1:33" ht="15.75" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -6869,7 +6981,7 @@
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
     </row>
-    <row r="156" spans="1:33" ht="15.75" customHeight="1">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -6904,7 +7016,7 @@
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
     </row>
-    <row r="157" spans="1:33" ht="15.75" customHeight="1">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -6939,7 +7051,7 @@
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
     </row>
-    <row r="158" spans="1:33" ht="15.75" customHeight="1">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -6974,7 +7086,7 @@
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
     </row>
-    <row r="159" spans="1:33" ht="15.75" customHeight="1">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -7009,7 +7121,7 @@
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
     </row>
-    <row r="160" spans="1:33" ht="15.75" customHeight="1">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -7044,7 +7156,7 @@
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
     </row>
-    <row r="161" spans="1:33" ht="15.75" customHeight="1">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -7079,7 +7191,7 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
     </row>
-    <row r="162" spans="1:33" ht="15.75" customHeight="1">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -7114,7 +7226,7 @@
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
     </row>
-    <row r="163" spans="1:33" ht="15.75" customHeight="1">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -7149,7 +7261,7 @@
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
     </row>
-    <row r="164" spans="1:33" ht="15.75" customHeight="1">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -7184,7 +7296,7 @@
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
     </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -7219,7 +7331,7 @@
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
     </row>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -7254,7 +7366,7 @@
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
     </row>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -7289,7 +7401,7 @@
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
     </row>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -7324,7 +7436,7 @@
       <c r="AF168" s="1"/>
       <c r="AG168" s="1"/>
     </row>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -7359,7 +7471,7 @@
       <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
     </row>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -7394,7 +7506,7 @@
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
     </row>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -7429,7 +7541,7 @@
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
     </row>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -7464,7 +7576,7 @@
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
     </row>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -7499,7 +7611,7 @@
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
     </row>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -7534,7 +7646,7 @@
       <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
     </row>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -7569,7 +7681,7 @@
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
     </row>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -7604,7 +7716,7 @@
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
     </row>
-    <row r="177" spans="1:33" ht="15.75" customHeight="1">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -7639,7 +7751,7 @@
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
     </row>
-    <row r="178" spans="1:33" ht="15.75" customHeight="1">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -7674,7 +7786,7 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
     </row>
-    <row r="179" spans="1:33" ht="15.75" customHeight="1">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -7709,7 +7821,7 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
     </row>
-    <row r="180" spans="1:33" ht="15.75" customHeight="1">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -7744,7 +7856,7 @@
       <c r="AF180" s="1"/>
       <c r="AG180" s="1"/>
     </row>
-    <row r="181" spans="1:33" ht="15.75" customHeight="1">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -7779,7 +7891,7 @@
       <c r="AF181" s="1"/>
       <c r="AG181" s="1"/>
     </row>
-    <row r="182" spans="1:33" ht="15.75" customHeight="1">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -7814,7 +7926,7 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
     </row>
-    <row r="183" spans="1:33" ht="15.75" customHeight="1">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -7849,7 +7961,7 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
     </row>
-    <row r="184" spans="1:33" ht="15.75" customHeight="1">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -7884,7 +7996,7 @@
       <c r="AF184" s="1"/>
       <c r="AG184" s="1"/>
     </row>
-    <row r="185" spans="1:33" ht="15.75" customHeight="1">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -7919,7 +8031,7 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
     </row>
-    <row r="186" spans="1:33" ht="15.75" customHeight="1">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -7954,7 +8066,7 @@
       <c r="AF186" s="1"/>
       <c r="AG186" s="1"/>
     </row>
-    <row r="187" spans="1:33" ht="15.75" customHeight="1">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -7989,7 +8101,7 @@
       <c r="AF187" s="1"/>
       <c r="AG187" s="1"/>
     </row>
-    <row r="188" spans="1:33" ht="15.75" customHeight="1">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -8024,7 +8136,7 @@
       <c r="AF188" s="1"/>
       <c r="AG188" s="1"/>
     </row>
-    <row r="189" spans="1:33" ht="15.75" customHeight="1">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -8059,7 +8171,7 @@
       <c r="AF189" s="1"/>
       <c r="AG189" s="1"/>
     </row>
-    <row r="190" spans="1:33" ht="15.75" customHeight="1">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -8094,7 +8206,7 @@
       <c r="AF190" s="1"/>
       <c r="AG190" s="1"/>
     </row>
-    <row r="191" spans="1:33" ht="15.75" customHeight="1">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -8129,7 +8241,7 @@
       <c r="AF191" s="1"/>
       <c r="AG191" s="1"/>
     </row>
-    <row r="192" spans="1:33" ht="15.75" customHeight="1">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -8164,7 +8276,7 @@
       <c r="AF192" s="1"/>
       <c r="AG192" s="1"/>
     </row>
-    <row r="193" spans="1:33" ht="15.75" customHeight="1">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -8199,7 +8311,7 @@
       <c r="AF193" s="1"/>
       <c r="AG193" s="1"/>
     </row>
-    <row r="194" spans="1:33" ht="15.75" customHeight="1">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -8234,7 +8346,7 @@
       <c r="AF194" s="1"/>
       <c r="AG194" s="1"/>
     </row>
-    <row r="195" spans="1:33" ht="15.75" customHeight="1">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -8269,7 +8381,7 @@
       <c r="AF195" s="1"/>
       <c r="AG195" s="1"/>
     </row>
-    <row r="196" spans="1:33" ht="15.75" customHeight="1">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -8304,7 +8416,7 @@
       <c r="AF196" s="1"/>
       <c r="AG196" s="1"/>
     </row>
-    <row r="197" spans="1:33" ht="15.75" customHeight="1">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -8339,7 +8451,7 @@
       <c r="AF197" s="1"/>
       <c r="AG197" s="1"/>
     </row>
-    <row r="198" spans="1:33" ht="15.75" customHeight="1">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -8374,7 +8486,7 @@
       <c r="AF198" s="1"/>
       <c r="AG198" s="1"/>
     </row>
-    <row r="199" spans="1:33" ht="15.75" customHeight="1">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -8409,7 +8521,7 @@
       <c r="AF199" s="1"/>
       <c r="AG199" s="1"/>
     </row>
-    <row r="200" spans="1:33" ht="15.75" customHeight="1">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -8444,7 +8556,7 @@
       <c r="AF200" s="1"/>
       <c r="AG200" s="1"/>
     </row>
-    <row r="201" spans="1:33" ht="15.75" customHeight="1">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -8479,7 +8591,7 @@
       <c r="AF201" s="1"/>
       <c r="AG201" s="1"/>
     </row>
-    <row r="202" spans="1:33" ht="15.75" customHeight="1">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -8514,7 +8626,7 @@
       <c r="AF202" s="1"/>
       <c r="AG202" s="1"/>
     </row>
-    <row r="203" spans="1:33" ht="15.75" customHeight="1">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -8549,7 +8661,7 @@
       <c r="AF203" s="1"/>
       <c r="AG203" s="1"/>
     </row>
-    <row r="204" spans="1:33" ht="15.75" customHeight="1">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -8584,7 +8696,7 @@
       <c r="AF204" s="1"/>
       <c r="AG204" s="1"/>
     </row>
-    <row r="205" spans="1:33" ht="15.75" customHeight="1">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -8619,7 +8731,7 @@
       <c r="AF205" s="1"/>
       <c r="AG205" s="1"/>
     </row>
-    <row r="206" spans="1:33" ht="15.75" customHeight="1">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -8654,7 +8766,7 @@
       <c r="AF206" s="1"/>
       <c r="AG206" s="1"/>
     </row>
-    <row r="207" spans="1:33" ht="15.75" customHeight="1">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -8689,7 +8801,7 @@
       <c r="AF207" s="1"/>
       <c r="AG207" s="1"/>
     </row>
-    <row r="208" spans="1:33" ht="15.75" customHeight="1">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -8724,7 +8836,7 @@
       <c r="AF208" s="1"/>
       <c r="AG208" s="1"/>
     </row>
-    <row r="209" spans="1:33" ht="15.75" customHeight="1">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -8759,7 +8871,7 @@
       <c r="AF209" s="1"/>
       <c r="AG209" s="1"/>
     </row>
-    <row r="210" spans="1:33" ht="15.75" customHeight="1">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -8794,7 +8906,7 @@
       <c r="AF210" s="1"/>
       <c r="AG210" s="1"/>
     </row>
-    <row r="211" spans="1:33" ht="15.75" customHeight="1">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -8829,7 +8941,7 @@
       <c r="AF211" s="1"/>
       <c r="AG211" s="1"/>
     </row>
-    <row r="212" spans="1:33" ht="15.75" customHeight="1">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -8864,7 +8976,7 @@
       <c r="AF212" s="1"/>
       <c r="AG212" s="1"/>
     </row>
-    <row r="213" spans="1:33" ht="15.75" customHeight="1">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -8899,7 +9011,7 @@
       <c r="AF213" s="1"/>
       <c r="AG213" s="1"/>
     </row>
-    <row r="214" spans="1:33" ht="15.75" customHeight="1">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -8934,7 +9046,7 @@
       <c r="AF214" s="1"/>
       <c r="AG214" s="1"/>
     </row>
-    <row r="215" spans="1:33" ht="15.75" customHeight="1">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -8969,7 +9081,7 @@
       <c r="AF215" s="1"/>
       <c r="AG215" s="1"/>
     </row>
-    <row r="216" spans="1:33" ht="15.75" customHeight="1">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -9004,7 +9116,7 @@
       <c r="AF216" s="1"/>
       <c r="AG216" s="1"/>
     </row>
-    <row r="217" spans="1:33" ht="15.75" customHeight="1">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -9039,7 +9151,7 @@
       <c r="AF217" s="1"/>
       <c r="AG217" s="1"/>
     </row>
-    <row r="218" spans="1:33" ht="15.75" customHeight="1">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -9074,7 +9186,7 @@
       <c r="AF218" s="1"/>
       <c r="AG218" s="1"/>
     </row>
-    <row r="219" spans="1:33" ht="15.75" customHeight="1">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -9109,7 +9221,7 @@
       <c r="AF219" s="1"/>
       <c r="AG219" s="1"/>
     </row>
-    <row r="220" spans="1:33" ht="15.75" customHeight="1">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -9144,7 +9256,7 @@
       <c r="AF220" s="1"/>
       <c r="AG220" s="1"/>
     </row>
-    <row r="221" spans="1:33" ht="15.75" customHeight="1">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -9179,7 +9291,7 @@
       <c r="AF221" s="1"/>
       <c r="AG221" s="1"/>
     </row>
-    <row r="222" spans="1:33" ht="15.75" customHeight="1">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -9214,7 +9326,7 @@
       <c r="AF222" s="1"/>
       <c r="AG222" s="1"/>
     </row>
-    <row r="223" spans="1:33" ht="15.75" customHeight="1">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -9249,7 +9361,7 @@
       <c r="AF223" s="1"/>
       <c r="AG223" s="1"/>
     </row>
-    <row r="224" spans="1:33" ht="15.75" customHeight="1">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -9284,7 +9396,7 @@
       <c r="AF224" s="1"/>
       <c r="AG224" s="1"/>
     </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -9319,7 +9431,7 @@
       <c r="AF225" s="1"/>
       <c r="AG225" s="1"/>
     </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -9354,7 +9466,7 @@
       <c r="AF226" s="1"/>
       <c r="AG226" s="1"/>
     </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -9389,7 +9501,7 @@
       <c r="AF227" s="1"/>
       <c r="AG227" s="1"/>
     </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -9424,7 +9536,7 @@
       <c r="AF228" s="1"/>
       <c r="AG228" s="1"/>
     </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -9459,7 +9571,7 @@
       <c r="AF229" s="1"/>
       <c r="AG229" s="1"/>
     </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -9494,7 +9606,7 @@
       <c r="AF230" s="1"/>
       <c r="AG230" s="1"/>
     </row>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -9529,287 +9641,15 @@
       <c r="AF231" s="1"/>
       <c r="AG231" s="1"/>
     </row>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-      <c r="AA232" s="1"/>
-      <c r="AB232" s="1"/>
-      <c r="AC232" s="1"/>
-      <c r="AD232" s="1"/>
-      <c r="AE232" s="1"/>
-      <c r="AF232" s="1"/>
-      <c r="AG232" s="1"/>
-    </row>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-      <c r="AA233" s="1"/>
-      <c r="AB233" s="1"/>
-      <c r="AC233" s="1"/>
-      <c r="AD233" s="1"/>
-      <c r="AE233" s="1"/>
-      <c r="AF233" s="1"/>
-      <c r="AG233" s="1"/>
-    </row>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
-      <c r="AB234" s="1"/>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
-      <c r="AE234" s="1"/>
-      <c r="AF234" s="1"/>
-      <c r="AG234" s="1"/>
-    </row>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
-      <c r="AB235" s="1"/>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
-      <c r="AE235" s="1"/>
-      <c r="AF235" s="1"/>
-      <c r="AG235" s="1"/>
-    </row>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-      <c r="Y236" s="1"/>
-      <c r="Z236" s="1"/>
-      <c r="AA236" s="1"/>
-      <c r="AB236" s="1"/>
-      <c r="AC236" s="1"/>
-      <c r="AD236" s="1"/>
-      <c r="AE236" s="1"/>
-      <c r="AF236" s="1"/>
-      <c r="AG236" s="1"/>
-    </row>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="V237" s="1"/>
-      <c r="W237" s="1"/>
-      <c r="X237" s="1"/>
-      <c r="Y237" s="1"/>
-      <c r="Z237" s="1"/>
-      <c r="AA237" s="1"/>
-      <c r="AB237" s="1"/>
-      <c r="AC237" s="1"/>
-      <c r="AD237" s="1"/>
-      <c r="AE237" s="1"/>
-      <c r="AF237" s="1"/>
-      <c r="AG237" s="1"/>
-    </row>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
-      <c r="K238" s="2"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
-      <c r="S238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="U238" s="1"/>
-      <c r="V238" s="1"/>
-      <c r="W238" s="1"/>
-      <c r="X238" s="1"/>
-      <c r="Y238" s="1"/>
-      <c r="Z238" s="1"/>
-      <c r="AA238" s="1"/>
-      <c r="AB238" s="1"/>
-      <c r="AC238" s="1"/>
-      <c r="AD238" s="1"/>
-      <c r="AE238" s="1"/>
-      <c r="AF238" s="1"/>
-      <c r="AG238" s="1"/>
-    </row>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A239" s="1"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
-      <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="V239" s="1"/>
-      <c r="W239" s="1"/>
-      <c r="X239" s="1"/>
-      <c r="Y239" s="1"/>
-      <c r="Z239" s="1"/>
-      <c r="AA239" s="1"/>
-      <c r="AB239" s="1"/>
-      <c r="AC239" s="1"/>
-      <c r="AD239" s="1"/>
-      <c r="AE239" s="1"/>
-      <c r="AF239" s="1"/>
-      <c r="AG239" s="1"/>
-    </row>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -10562,100 +10402,73 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P31">
-    <filterColumn colId="7" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="8" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="9" hiddenButton="1" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="16">
+  <autoFilter ref="$A$7:$P$29"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A27:A37"/>
-    <mergeCell ref="A9:A26"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="18.71"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="12.75">
+    <row r="2">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="12.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="12.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="12.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="12.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -11639,8 +11452,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>